--- a/flows/TBIL_fund_flow_data.xlsx
+++ b/flows/TBIL_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B395"/>
+  <dimension ref="A1:B403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,6 +4385,86 @@
         <v>14.0056</v>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>8.505592999999999</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>19.93688</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>14.458994</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>-2.494315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
